--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -103,58 +103,58 @@
     <t>risk</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>positive</t>
@@ -751,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9145299145299145</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.896551724137931</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>0.8899082568807339</v>
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
         <v>0.8652482269503546</v>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
         <v>0.8375</v>
@@ -1133,7 +1133,7 @@
         <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0.8085106382978723</v>
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>0.8080808080808081</v>
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>0.7640449438202247</v>
@@ -1333,28 +1333,28 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.762114537444934</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,28 +1383,28 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N14">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1433,28 +1433,28 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7046153846153846</v>
+        <v>0.6936619718309859</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,25 +1486,25 @@
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.6936619718309859</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="L16">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="M16">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,25 +1536,25 @@
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.6823529411764706</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L17">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1862,25 +1862,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1351351351351351</v>
+        <v>0.01175548589341693</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>244</v>
+        <v>585</v>
       </c>
       <c r="E24">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F24">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>96</v>
+        <v>2522</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
@@ -1912,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01175548589341693</v>
+        <v>0.01121704991587213</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>585</v>
+        <v>380</v>
       </c>
       <c r="E25">
         <v>0.95</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2522</v>
+        <v>1763</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
@@ -1958,30 +1958,6 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01121704991587213</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>380</v>
-      </c>
-      <c r="E26">
-        <v>0.95</v>
-      </c>
-      <c r="F26">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1763</v>
-      </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
@@ -3361,7 +3337,7 @@
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K79">
         <v>0.1803704907377316</v>
@@ -3413,7 +3389,7 @@
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K81">
         <v>0.1695713612812058</v>
